--- a/madoka_behold_the_another_world/Assets/DataFile/StagePositionData.xlsx
+++ b/madoka_behold_the_another_world/Assets/DataFile/StagePositionData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="24795" windowHeight="10545" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="24795" windowHeight="10545" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -513,7 +513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD7"/>
     </sheetView>
   </sheetViews>
@@ -738,7 +738,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1461,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>

--- a/madoka_behold_the_another_world/Assets/DataFile/StagePositionData.xlsx
+++ b/madoka_behold_the_another_world/Assets/DataFile/StagePositionData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="24795" windowHeight="10545" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="24795" windowHeight="10545" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -737,7 +737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1461,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1765,6 +1765,9 @@
       </c>
       <c r="F13">
         <v>270</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
